--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/31_Erzurum_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/31_Erzurum_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E47BB6-AEE4-4AA9-A0F3-91787F1CB0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31B0F74-F1DA-4596-A97D-AA38BD7B5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{5E80EB11-0E07-47AB-979C-FDD0E0CB71C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{AD4A17EB-486F-4C3E-A900-D8FE63B7577F}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{44A009BA-3421-4F8B-A265-AE5B4D5CA103}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{12464D4E-32C2-4DD0-8D37-793FF4C55625}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{59A07CC5-FBE5-432D-AA20-B5F21564AFF1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9F3FED4F-09F3-4569-B813-39FA23C46455}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{726F6C15-9AE7-4FF9-8D9D-8F24F85785FD}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{764395BD-414A-4E2D-A0CD-688B49C1DE80}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E1DB6968-5426-4AF4-82AC-57D8582E9E38}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{353DC506-61C1-4CC2-83BB-7DE270FB4E03}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5E3E2BF4-0362-4AF8-B787-70BB093986A1}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D43AF3AB-F443-440F-8A50-6ECA1E272386}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{FC0810FF-CC05-4C7B-81C3-D35D320350B3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{98547A64-5073-4DE4-8436-87CB73D1014A}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{32F214E8-F9AB-4A47-865B-2E62BCB5FCD8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1BFFF56A-FE0A-4AB4-A6E4-CB628BF30BF9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F805218-4DFE-4B70-937D-D36524061521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62BD225-0938-4C24-BA6E-5A3317FF933C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2434,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27070CE-5EFE-47D4-A3E9-270826630887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598955FE-6745-4F9F-B262-654A5BA71375}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3713,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988CDAE-A2EE-434F-831A-938B9CD2CE91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3619252-DAEF-4828-A2A2-2E718F54DF43}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4990,7 +4990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD561942-159F-4238-BEB3-74F46B058A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED938E74-06A8-4BA4-A130-A3868E393157}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6267,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D27456-A3E2-4599-BBB3-7E5AB5474916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A2ADF1-E7F0-4AA7-9FB9-8D8B2FBD73FC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7520,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390CEE2-F020-4DE0-9E0C-955C1A31FE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21AE3F1-1933-47A6-8BA8-DD5A4BA1FA3B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
